--- a/municipal/ENG/byOwnershipType/Number of active entities by ownership type and size/Kvemo Kartli/C. Rustavi.xlsx
+++ b/municipal/ENG/byOwnershipType/Number of active entities by ownership type and size/Kvemo Kartli/C. Rustavi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\მუნიციპალიტეტები\ბიზნეს რეგისტრი\ENG\Number of active entities by ownership type and size\Kvemo Kartli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\ENG\byOwnershipType\Number of active entities by ownership type and size\Kvemo Kartli\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C82292-89F7-4B01-98FC-181ECD5EA4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="31635" yWindow="2205" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rustavi" sheetId="1" r:id="rId1"/>
@@ -74,13 +75,13 @@
     <t xml:space="preserve">Uncertain </t>
   </si>
   <si>
-    <t>Number of active entities registered in Rustavi by ownership type and size</t>
+    <t>Number of active entities registered in C. Rustavi by ownership type and size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
@@ -276,8 +277,8 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,7 +303,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,10 +318,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,12 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,31 +641,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -694,61 +695,61 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="22">
         <v>2012</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="24">
         <v>2013</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="24">
         <v>2014</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="24">
         <v>2015</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="24">
         <v>2016</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="24">
         <v>2017</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="24">
         <v>2018</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="18">
         <v>2019</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18">
         <v>2020</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16">
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18">
         <v>2021</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1435,11 +1436,11 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
